--- a/Sprint BacklogModified.xlsx
+++ b/Sprint BacklogModified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimiwesterholm\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimiwesterholm\Documents\GitHub\AC31007-Team5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
   <si>
     <t>User Story</t>
   </si>
@@ -240,18 +240,6 @@
     <t>Query to get each question + answer for the applicable quiz ID</t>
   </si>
   <si>
-    <t>29. &lt;&lt;View Individual Quiz&gt;&gt; should display a list of multiple-choice questions</t>
-  </si>
-  <si>
-    <t>Ensure submitted values are correct and insert into database</t>
-  </si>
-  <si>
-    <t>Alesksandrs</t>
-  </si>
-  <si>
-    <t>30. &lt;&lt;View Individual Quiz&gt;&gt; should display a list of multiple-choice questions</t>
-  </si>
-  <si>
     <t>Quiz summary - student view page designed HTML/CSS</t>
   </si>
   <si>
@@ -330,15 +318,9 @@
     <t>Link applicable summary page for each previous result</t>
   </si>
   <si>
-    <t>43. &lt;&lt;Student&gt;&gt; can print a summary from &lt;&lt;Quiz Summary - Student View&gt;&gt;</t>
-  </si>
-  <si>
     <t>CSS print stylesheets</t>
   </si>
   <si>
-    <t>44. &lt;&lt;Student&gt;&gt; can email a summary from &lt;&lt;Quiz Summary - Student View&gt;&gt;</t>
-  </si>
-  <si>
     <t>HTML/CSS design email</t>
   </si>
   <si>
@@ -352,6 +334,15 @@
   </si>
   <si>
     <t>Form to add students' results to database</t>
+  </si>
+  <si>
+    <t>Query to get ordered list</t>
+  </si>
+  <si>
+    <t>29. &lt;&lt;Student&gt;&gt; can print a summary from &lt;&lt;Quiz Summary - Student View&gt;&gt;</t>
+  </si>
+  <si>
+    <t>30. &lt;&lt;Student&gt;&gt; can email a summary from &lt;&lt;Quiz Summary - Student View&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -780,17 +771,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1090,20 +1081,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="A1" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1449,7 +1440,7 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
@@ -2526,7 +2517,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="24"/>
       <c r="C76" s="14"/>
@@ -2540,7 +2531,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>65</v>
       </c>
@@ -2566,13 +2557,17 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
+    <row r="78" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="1"/>
+      <c r="D78" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="42"/>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2580,25 +2575,13 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="24">
-        <v>1</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2</v>
-      </c>
+    <row r="79" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2606,13 +2589,25 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="1"/>
+    <row r="80" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="24">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2620,19 +2615,13 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="24">
-        <v>1</v>
-      </c>
+    <row r="81" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2640,13 +2629,19 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
+    <row r="82" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="24">
+        <v>1</v>
+      </c>
       <c r="C82" s="14"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="1"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2654,25 +2649,13 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="24">
-        <v>3</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
+    <row r="83" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2680,18 +2663,24 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="14"/>
+    <row r="84" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="24">
+        <v>6</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="D84" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -2700,38 +2689,40 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
+    <row r="85" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
       <c r="B85" s="24"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
+      <c r="D85" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
+    <row r="86" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="24">
-        <v>1</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>75</v>
+      <c r="E86" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="F86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2741,12 +2732,18 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="1"/>
+      <c r="D87" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2754,24 +2751,18 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="24">
-        <v>6</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>16</v>
-      </c>
+    <row r="88" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2780,33 +2771,35 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
+    <row r="89" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="41"/>
       <c r="B89" s="30"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="1"/>
+      <c r="D89" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+    <row r="90" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
       <c r="B90" s="30"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2</v>
-      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -2814,17 +2807,21 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="1">
+    <row r="91" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="24">
+        <v>2</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="6">
         <v>2</v>
       </c>
       <c r="G91" s="2"/>
@@ -2834,19 +2831,15 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="43"/>
-      <c r="B92" s="30"/>
+    <row r="92" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E92" s="38"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -2854,13 +2847,19 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="24"/>
+    <row r="93" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="24">
+        <v>8</v>
+      </c>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="1"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="6">
+        <v>5</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -2868,22 +2867,14 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="24">
-        <v>1</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="1">
-        <v>2</v>
+    <row r="94" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="6">
+        <v>1</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2892,15 +2883,19 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="1"/>
+    <row r="95" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="6">
+        <v>2</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -2908,22 +2903,9 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96" s="24">
-        <v>1</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
+    <row r="96" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2932,13 +2914,11 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="24"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="D97" s="15"/>
       <c r="E97" s="22"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
@@ -2949,21 +2929,21 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>84</v>
+      <c r="A98" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B98" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="25" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2973,11 +2953,11 @@
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="24"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="35" t="s">
-        <v>85</v>
+      <c r="D99" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="1"/>
@@ -2990,7 +2970,7 @@
     </row>
     <row r="100" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B100" s="24">
         <v>1</v>
@@ -3000,10 +2980,10 @@
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="25" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -3016,8 +2996,8 @@
       <c r="A101" s="20"/>
       <c r="B101" s="24"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="35" t="s">
-        <v>87</v>
+      <c r="D101" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="1"/>
@@ -3030,10 +3010,10 @@
     </row>
     <row r="102" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B102" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>16</v>
@@ -3043,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -3056,7 +3036,9 @@
       <c r="A103" s="20"/>
       <c r="B103" s="24"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="36"/>
+      <c r="D103" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="E103" s="22"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
@@ -3068,7 +3050,7 @@
     </row>
     <row r="104" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B104" s="24">
         <v>1</v>
@@ -3078,10 +3060,10 @@
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="25" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -3094,8 +3076,8 @@
       <c r="A105" s="20"/>
       <c r="B105" s="24"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="15" t="s">
-        <v>90</v>
+      <c r="D105" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="E105" s="22"/>
       <c r="F105" s="1"/>
@@ -3108,7 +3090,7 @@
     </row>
     <row r="106" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B106" s="24">
         <v>1</v>
@@ -3118,10 +3100,10 @@
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="25" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -3134,9 +3116,7 @@
       <c r="A107" s="20"/>
       <c r="B107" s="24"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="34" t="s">
-        <v>63</v>
-      </c>
+      <c r="D107" s="36"/>
       <c r="E107" s="22"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
@@ -3148,7 +3128,7 @@
     </row>
     <row r="108" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B108" s="24">
         <v>1</v>
@@ -3157,10 +3137,12 @@
         <v>16</v>
       </c>
       <c r="D108" s="21"/>
-      <c r="E108" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="1"/>
+      <c r="E108" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3169,13 +3151,13 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="24"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="E109" s="22"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -3185,14 +3167,22 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="1"/>
+      <c r="A110" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="24">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3201,19 +3191,13 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="24">
-        <v>1</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A111" s="20"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="22"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -3223,14 +3207,18 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>107</v>
+      <c r="A112" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" s="24">
+        <v>1</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="21"/>
+      <c r="E112" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
@@ -3241,13 +3229,13 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="24"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="E113" s="19"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -3256,62 +3244,58 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="24">
-        <v>1</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="16" t="s">
-        <v>15</v>
-      </c>
+    <row r="114" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="22"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="2"/>
+    <row r="115" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="24">
+        <v>1</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="21"/>
+      <c r="E115" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="F115" s="1"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="24">
-        <v>2</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="21"/>
+    <row r="116" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="E116" s="19" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="F116" s="1"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -3321,90 +3305,86 @@
       <c r="B117" s="24"/>
       <c r="C117" s="14"/>
       <c r="D117" s="15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E117" s="22"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B118" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="21"/>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F118" s="1"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
       <c r="B119" s="24"/>
       <c r="C119" s="14"/>
       <c r="D119" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E119" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="24">
+        <v>2</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="21"/>
+      <c r="E120" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="24">
-        <v>2</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="6">
-        <v>2</v>
-      </c>
+      <c r="A121" s="20"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E121" s="22"/>
+      <c r="F121" s="1"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -3413,14 +3393,20 @@
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E122" s="38"/>
-      <c r="F122" s="6"/>
+      <c r="A122" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="24">
+        <v>4</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="21"/>
+      <c r="E122" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -3429,18 +3415,16 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="24">
-        <v>8</v>
-      </c>
+      <c r="A123" s="25"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="6">
-        <v>5</v>
-      </c>
+      <c r="D123" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123" s="1"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
@@ -3448,46 +3432,15 @@
       <c r="K123" s="7"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="31"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="6">
-        <v>1</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="6">
-        <v>2</v>
-      </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="15" t="s">
-        <v>106</v>
-      </c>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="20"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sprint BacklogModified.xlsx
+++ b/Sprint BacklogModified.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>User Story</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Jimi</t>
   </si>
   <si>
-    <t>Page redirection on incorrect credentials</t>
-  </si>
-  <si>
     <t>Carim</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
     <t>Page: add textbox and submit button to specify student</t>
   </si>
   <si>
-    <t>22. &lt;&lt;Student&gt;&gt; can log in using their Matriculation ID</t>
-  </si>
-  <si>
-    <t>Page redirection on correct credentials after login</t>
-  </si>
-  <si>
     <t>23. &lt;&lt;Student&gt;&gt; after logging in should be shown &lt;&lt;Quiz Overview&gt;&gt;</t>
   </si>
   <si>
@@ -264,15 +255,6 @@
     <t>33. &lt;&lt;Quiz Summary - Student View&gt;&gt; should display an explanation for each correct answer where applicable</t>
   </si>
   <si>
-    <t>after test complition student can view correct answer for each quiz</t>
-  </si>
-  <si>
-    <t>34. &lt;&lt;Quiz Summary - Student View&gt;&gt; should display an explanation for each incorrect answer where applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">after the test complition should </t>
-  </si>
-  <si>
     <t>35. &lt;&lt;Student&gt;&gt; can see if a quiz is completed from &lt;&lt;Quiz Overview&gt;&gt;</t>
   </si>
   <si>
@@ -343,6 +325,18 @@
   </si>
   <si>
     <t>30. &lt;&lt;Student&gt;&gt; can email a summary from &lt;&lt;Quiz Summary - Student View&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Display box for showing explanation</t>
+  </si>
+  <si>
+    <t>Second box in case of wrong answer</t>
+  </si>
+  <si>
+    <t>Add marker to show completed</t>
   </si>
 </sst>
 </file>
@@ -412,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -645,11 +639,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -782,6 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1247,10 +1253,10 @@
       <c r="A9" s="19"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>12</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="24">
         <v>2</v>
@@ -1331,7 +1337,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="24">
         <v>1</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="24">
         <v>1</v>
@@ -1399,7 +1405,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="24">
         <v>1</v>
@@ -1433,17 +1439,17 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="24">
         <v>3</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="24">
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="24">
-        <v>2</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1622,10 +1628,10 @@
       <c r="B30" s="24"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="24">
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1682,10 +1688,10 @@
       <c r="B33" s="24"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="24">
         <v>3</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
@@ -1742,10 +1748,10 @@
       <c r="B36" s="24"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="24">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="24">
-        <v>2</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -1802,10 +1808,10 @@
       <c r="B39" s="24"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="24">
         <v>3</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -1862,10 +1868,10 @@
       <c r="B42" s="24"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="24">
         <v>2</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -1922,10 +1928,10 @@
       <c r="B45" s="24"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="24">
+        <v>2</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="24">
-        <v>2</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -1982,10 +1988,10 @@
       <c r="B48" s="24"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="24">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="24">
-        <v>1</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -2042,10 +2048,10 @@
       <c r="B51" s="24"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="24">
         <v>1</v>
@@ -2107,7 +2113,7 @@
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="24">
         <v>1</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="24">
         <v>1</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="24">
         <v>2</v>
@@ -2203,13 +2209,13 @@
       <c r="A60" s="25"/>
       <c r="B60" s="24"/>
       <c r="C60" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="62" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="24">
         <v>5</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1">
         <v>2</v>
@@ -2266,10 +2272,10 @@
       <c r="B63" s="30"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
@@ -2286,10 +2292,10 @@
       <c r="B64" s="30"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="66" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="24">
         <v>4</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
@@ -2346,10 +2352,10 @@
       <c r="B67" s="30"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
@@ -2366,10 +2372,10 @@
       <c r="B68" s="30"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F68" s="1">
         <v>2</v>
@@ -2381,7 +2387,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="24"/>
       <c r="C69" s="14"/>
@@ -2395,25 +2401,13 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="24">
-        <v>3</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1">
-        <v>3</v>
-      </c>
+    <row r="70" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2421,18 +2415,22 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>12</v>
-      </c>
+    <row r="71" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="24">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="25"/>
       <c r="F71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2441,8 +2439,8 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
+    <row r="72" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
       <c r="B72" s="24"/>
       <c r="C72" s="14"/>
       <c r="D72" s="21"/>
@@ -2455,18 +2453,18 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="1">
@@ -2479,10 +2477,9 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="14"/>
       <c r="D74" s="21"/>
       <c r="E74" s="22"/>
       <c r="F74" s="1"/>
@@ -2493,63 +2490,61 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+    <row r="76" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
+      <c r="D76" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="42"/>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="24">
-        <v>1</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2</v>
-      </c>
+    <row r="77" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2557,25 +2552,35 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="42"/>
+    <row r="78" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="24">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="F78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="24"/>
       <c r="C79" s="14"/>
@@ -2591,22 +2596,16 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="24">
         <v>1</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2630,15 +2629,21 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>69</v>
+      <c r="A82" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B82" s="24">
-        <v>1</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F82" s="1">
         <v>1</v>
       </c>
@@ -2650,34 +2655,36 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="24"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
+      <c r="D83" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="24">
-        <v>6</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="E84" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -2689,40 +2696,38 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="24"/>
+    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E85" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="2">
-        <v>2</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="24"/>
+    <row r="86" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2731,18 +2736,18 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+    <row r="87" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="41"/>
       <c r="B87" s="30"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E87" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="42" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -2752,18 +2757,12 @@
       <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="30"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1">
-        <v>2</v>
-      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2771,18 +2770,22 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="1">
-        <v>3</v>
+    <row r="89" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="24">
+        <v>2</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6">
+        <v>2</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2">
@@ -2793,13 +2796,15 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="30"/>
+    <row r="90" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="1"/>
+      <c r="D90" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="38"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -2809,20 +2814,16 @@
     </row>
     <row r="91" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B91" s="24">
-        <v>2</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="37" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -2831,15 +2832,15 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="6"/>
+    <row r="92" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -2847,18 +2848,18 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="24">
-        <v>8</v>
-      </c>
-      <c r="C93" s="14"/>
+    <row r="93" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="40" t="s">
+        <v>15</v>
+      </c>
       <c r="D93" s="15"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="F93" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -2868,13 +2869,8 @@
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="6">
-        <v>1</v>
+      <c r="D94" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2884,18 +2880,12 @@
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40" t="s">
-        <v>16</v>
-      </c>
+      <c r="A95" s="20"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="15"/>
-      <c r="E95" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="6">
-        <v>2</v>
-      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -2903,9 +2893,22 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="15" t="s">
-        <v>100</v>
+    <row r="96" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="24">
+        <v>1</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2914,11 +2917,13 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+    <row r="97" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
       <c r="B97" s="24"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="E97" s="22"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
@@ -2929,21 +2934,21 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>76</v>
+      <c r="A98" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B98" s="24">
         <v>1</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2952,12 +2957,12 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
+    <row r="99" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
       <c r="B99" s="24"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="1"/>
@@ -2968,23 +2973,13 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="24">
-        <v>1</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
+    <row r="100" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="45"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -2993,38 +2988,42 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="1"/>
+      <c r="A101" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="24">
+        <v>3</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="I101" s="2">
+        <v>1</v>
+      </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" s="24">
-        <v>3</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
+      <c r="A102" s="20"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3033,13 +3032,11 @@
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="24"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" s="22"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3049,22 +3046,12 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B104" s="24">
-        <v>1</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="1">
-        <v>3</v>
-      </c>
+      <c r="A104" s="20"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3073,14 +3060,24 @@
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E105" s="22"/>
-      <c r="F105" s="1"/>
+      <c r="A105" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="24">
+        <v>1</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3089,22 +3086,12 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B106" s="24">
-        <v>1</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="1">
-        <v>4</v>
-      </c>
+      <c r="A106" s="20"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3113,12 +3100,22 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="1"/>
+      <c r="A107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="24">
+        <v>1</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3127,22 +3124,14 @@
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B108" s="24">
-        <v>1</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2</v>
-      </c>
+      <c r="A108" s="20"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="22"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3151,14 +3140,22 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="1"/>
+      <c r="A109" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="24">
+        <v>1</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3167,22 +3164,14 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B110" s="24">
-        <v>1</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110" s="1">
-        <v>3</v>
-      </c>
+      <c r="A110" s="20"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="22"/>
+      <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3191,13 +3180,19 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="22"/>
+      <c r="A111" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="24">
+        <v>1</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -3207,19 +3202,13 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B112" s="24">
-        <v>1</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A112" s="25"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" s="19"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -3229,15 +3218,15 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="24"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E113" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="E113" s="22"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="2"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -3245,37 +3234,39 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E114" s="22"/>
+      <c r="A114" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="24">
+        <v>1</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="21"/>
+      <c r="E114" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="24">
-        <v>1</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="16" t="s">
-        <v>15</v>
+      <c r="A115" s="25"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="F115" s="1"/>
-      <c r="G115" s="3"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="2"/>
@@ -3283,91 +3274,89 @@
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="24"/>
       <c r="C116" s="14"/>
       <c r="D116" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>101</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E116" s="22"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="22"/>
+    <row r="117" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="24">
+        <v>1</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="21"/>
+      <c r="E117" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F117" s="1"/>
-      <c r="G117" s="2"/>
+      <c r="G117" s="5"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="24">
-        <v>1</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="21"/>
-      <c r="E118" s="16" t="s">
+    <row r="118" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="24">
+        <v>2</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E119" s="2"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="24">
-        <v>2</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E120" s="22"/>
       <c r="F120" s="1"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -3377,13 +3366,19 @@
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E121" s="22"/>
+      <c r="A121" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="24">
+        <v>4</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="21"/>
+      <c r="E121" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
@@ -3393,18 +3388,14 @@
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="24">
-        <v>4</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="21"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E122" s="25" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="7"/>
@@ -3414,33 +3405,27 @@
       <c r="K122" s="7"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
+    <row r="123" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="20"/>
       <c r="B123" s="24"/>
       <c r="C123" s="14"/>
       <c r="D123" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="4"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="4"/>
+    <row r="124" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sprint BacklogModified.xlsx
+++ b/Sprint BacklogModified.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="122">
   <si>
     <t>User Story</t>
   </si>
@@ -337,6 +337,54 @@
   </si>
   <si>
     <t>Add marker to show completed</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Staff&gt;&gt; Can view students' answers</t>
+  </si>
+  <si>
+    <t>Results overview page HTML</t>
+  </si>
+  <si>
+    <t>Individual results page HTML</t>
+  </si>
+  <si>
+    <t>Page design CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java file to get all student's results </t>
+  </si>
+  <si>
+    <t>Java file to get a student's answer for each question</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Staff&gt;&gt; Can add images to questions</t>
+  </si>
+  <si>
+    <t>Add field to question table</t>
+  </si>
+  <si>
+    <t>Make upload option for images</t>
+  </si>
+  <si>
+    <t>Make sure images loaded correctly</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Staff&gt;&gt; Can choose to have answers' order randomised for students</t>
+  </si>
+  <si>
+    <t>Add randomisation to takeQuiz page</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Staff&gt;&gt; Can view a log of who edited a quiz</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Staff&gt;&gt; Can delete quizzes, questions and answers</t>
+  </si>
+  <si>
+    <t>Add forms for deleting quizzes, questions and answers</t>
+  </si>
+  <si>
+    <t>remove quizzes, questions and answers from database</t>
   </si>
 </sst>
 </file>
@@ -652,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -780,13 +828,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1069,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1087,20 +1138,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2974,7 +3025,7 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="24"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
@@ -3421,11 +3472,199 @@
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="42"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="42"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="8">
+        <v>1</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1</v>
+      </c>
+      <c r="I126" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="8">
+        <v>3</v>
+      </c>
+      <c r="J128" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="8">
+        <v>2</v>
+      </c>
+      <c r="I139" s="8">
+        <v>1</v>
+      </c>
+      <c r="J139" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="8">
+        <v>2</v>
+      </c>
+      <c r="I140" s="8">
+        <v>1</v>
+      </c>
+      <c r="J140" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
